--- a/data/trans_orig/P1431-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EBDC021-136E-4B2E-B8F4-1A5061825168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05C38EC1-6F2E-45CE-B12A-2A28889A5FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4DA818F6-BE8A-4FB0-A6A8-E196732736B6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B7E2B226-881D-40F8-B2FC-D20791F3E7F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="329">
   <si>
     <t>Población con diagnóstico de enfermedad de riñón en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -103,892 +103,889 @@
     <t>1,43%</t>
   </si>
   <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad de riñón en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad de riñón en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
     <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad de riñón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad de riñón en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
   </si>
   <si>
     <t>0,23%</t>
@@ -1439,7 +1436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACE866C-C052-4018-AA2A-44A077B9C2AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4DCDE4-E776-4A2D-B912-76124938E0E3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2017,13 +2014,13 @@
         <v>2113</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2032,13 +2029,13 @@
         <v>5142</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,13 +2050,13 @@
         <v>321018</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H14" s="7">
         <v>315</v>
@@ -2068,13 +2065,13 @@
         <v>338907</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M14" s="7">
         <v>631</v>
@@ -2083,13 +2080,13 @@
         <v>659924</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,7 +2142,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2163,7 +2160,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2178,7 +2175,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2193,7 +2190,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,13 +2205,13 @@
         <v>8629</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2223,13 +2220,13 @@
         <v>15100</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -2238,13 +2235,13 @@
         <v>23729</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,13 +2256,13 @@
         <v>660091</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="H18" s="7">
         <v>612</v>
@@ -2274,13 +2271,13 @@
         <v>661096</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="M18" s="7">
         <v>1230</v>
@@ -2289,13 +2286,13 @@
         <v>1321187</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,7 +2348,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2369,7 +2366,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2384,7 +2381,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2399,7 +2396,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,13 +2411,13 @@
         <v>2097</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2429,13 +2426,13 @@
         <v>8810</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -2444,13 +2441,13 @@
         <v>10906</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2462,13 @@
         <v>210521</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -2480,13 +2477,13 @@
         <v>210781</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M22" s="7">
         <v>398</v>
@@ -2495,13 +2492,13 @@
         <v>421303</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,7 +2554,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2575,7 +2572,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2590,7 +2587,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2605,7 +2602,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2617,13 @@
         <v>4087</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2635,13 +2632,13 @@
         <v>2842</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2650,13 +2647,13 @@
         <v>6929</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2668,13 @@
         <v>269894</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H26" s="7">
         <v>265</v>
@@ -2686,13 +2683,13 @@
         <v>275254</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M26" s="7">
         <v>522</v>
@@ -2701,13 +2698,13 @@
         <v>545148</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,7 +2760,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2781,7 +2778,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2811,7 +2808,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2823,13 @@
         <v>7292</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2844,10 +2841,10 @@
         <v>24</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -2856,13 +2853,13 @@
         <v>11366</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2874,13 @@
         <v>655496</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H30" s="7">
         <v>632</v>
@@ -2895,10 +2892,10 @@
         <v>34</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M30" s="7">
         <v>1244</v>
@@ -2907,13 +2904,13 @@
         <v>1345275</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,7 +2966,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2987,7 +2984,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3002,7 +2999,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3017,7 +3014,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3029,13 @@
         <v>8605</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="H33" s="7">
         <v>12</v>
@@ -3047,13 +3044,13 @@
         <v>12800</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M33" s="7">
         <v>20</v>
@@ -3062,13 +3059,13 @@
         <v>21405</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3080,13 @@
         <v>770493</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H34" s="7">
         <v>744</v>
@@ -3098,13 +3095,13 @@
         <v>809778</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M34" s="7">
         <v>1453</v>
@@ -3113,13 +3110,13 @@
         <v>1580271</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3190,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3208,7 +3205,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3223,7 +3220,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,13 +3235,13 @@
         <v>40966</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H37" s="7">
         <v>51</v>
@@ -3253,13 +3250,13 @@
         <v>53002</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M37" s="7">
         <v>89</v>
@@ -3268,13 +3265,13 @@
         <v>93968</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3286,13 @@
         <v>3385813</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H38" s="7">
         <v>3244</v>
@@ -3304,28 +3301,28 @@
         <v>3500988</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="M38" s="7">
         <v>6415</v>
       </c>
       <c r="N38" s="7">
-        <v>6886800</v>
+        <v>6886801</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,7 +3364,7 @@
         <v>6504</v>
       </c>
       <c r="N39" s="7">
-        <v>6980768</v>
+        <v>6980769</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
@@ -3381,7 +3378,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3405,7 +3402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435464B7-435F-44DA-9ABE-4A82DD77A87D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5FFC7C-0120-4503-9A4E-B52D40B4345F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3422,7 +3419,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3535,7 +3532,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3550,7 +3547,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3565,7 +3562,7 @@
         <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3577,13 @@
         <v>4740</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -3595,13 +3592,13 @@
         <v>6245</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -3610,13 +3607,13 @@
         <v>10985</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3628,13 @@
         <v>289021</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>271</v>
@@ -3646,13 +3643,13 @@
         <v>282458</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M6" s="7">
         <v>532</v>
@@ -3661,13 +3658,13 @@
         <v>571479</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3783,13 @@
         <v>6414</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -3801,13 +3798,13 @@
         <v>5315</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -3816,10 +3813,10 @@
         <v>11729</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>188</v>
@@ -3843,7 +3840,7 @@
         <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>479</v>
@@ -3852,13 +3849,13 @@
         <v>517769</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>948</v>
@@ -3867,13 +3864,13 @@
         <v>1013930</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,7 +3944,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3962,7 +3959,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3992,13 +3989,13 @@
         <v>2698</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4007,13 +4004,13 @@
         <v>2303</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4022,13 +4019,13 @@
         <v>5001</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4040,13 @@
         <v>315867</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>330</v>
@@ -4058,13 +4055,13 @@
         <v>334006</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>662</v>
@@ -4073,13 +4070,13 @@
         <v>649873</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,7 +4132,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4153,7 +4150,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4168,7 +4165,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4183,7 +4180,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,10 +4195,10 @@
         <v>7030</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>211</v>
@@ -4216,10 +4213,10 @@
         <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -4228,13 +4225,13 @@
         <v>13878</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4246,13 @@
         <v>362934</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="H18" s="7">
         <v>352</v>
@@ -4264,13 +4261,13 @@
         <v>380435</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="M18" s="7">
         <v>699</v>
@@ -4279,13 +4276,13 @@
         <v>743369</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,7 +4338,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4359,7 +4356,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4374,7 +4371,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4389,7 +4386,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4401,13 @@
         <v>5556</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -4419,13 +4416,13 @@
         <v>4466</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -4434,13 +4431,13 @@
         <v>10022</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4452,13 @@
         <v>205665</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H22" s="7">
         <v>219</v>
@@ -4470,13 +4467,13 @@
         <v>214121</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="M22" s="7">
         <v>426</v>
@@ -4485,13 +4482,13 @@
         <v>419786</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,7 +4544,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4565,7 +4562,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4580,7 +4577,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4595,7 +4592,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4607,13 @@
         <v>3607</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -4625,13 +4622,13 @@
         <v>10542</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -4640,13 +4637,13 @@
         <v>14149</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>101</v>
+        <v>248</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4658,13 @@
         <v>259516</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H26" s="7">
         <v>253</v>
@@ -4676,13 +4673,13 @@
         <v>262573</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="M26" s="7">
         <v>508</v>
@@ -4691,13 +4688,13 @@
         <v>522089</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>110</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,7 +4750,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4771,7 +4768,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>105</v>
+        <v>258</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4801,7 +4798,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4813,13 @@
         <v>5001</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -4831,13 +4828,13 @@
         <v>8201</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -4846,13 +4843,13 @@
         <v>13202</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>267</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4864,13 @@
         <v>651557</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H30" s="7">
         <v>639</v>
@@ -4882,13 +4879,13 @@
         <v>683093</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M30" s="7">
         <v>1214</v>
@@ -4897,13 +4894,13 @@
         <v>1334650</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>93</v>
+        <v>271</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,7 +4956,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4977,7 +4974,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4992,7 +4989,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5007,7 +5004,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5019,13 @@
         <v>10426</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -5037,13 +5034,13 @@
         <v>12905</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M33" s="7">
         <v>21</v>
@@ -5052,13 +5049,13 @@
         <v>23331</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,13 +5070,13 @@
         <v>768157</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H34" s="7">
         <v>744</v>
@@ -5088,13 +5085,13 @@
         <v>813262</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M34" s="7">
         <v>1484</v>
@@ -5103,13 +5100,13 @@
         <v>1581419</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,7 +5180,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5198,7 +5195,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5213,7 +5210,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,13 +5225,13 @@
         <v>45472</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="H37" s="7">
         <v>51</v>
@@ -5243,13 +5240,13 @@
         <v>56826</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M37" s="7">
         <v>96</v>
@@ -5258,13 +5255,13 @@
         <v>102298</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>152</v>
+        <v>286</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,13 +5276,13 @@
         <v>3348878</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>296</v>
+        <v>219</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>89</v>
+        <v>290</v>
       </c>
       <c r="H38" s="7">
         <v>3287</v>
@@ -5294,13 +5291,13 @@
         <v>3487716</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M38" s="7">
         <v>6473</v>
@@ -5309,13 +5306,13 @@
         <v>6836594</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>158</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,7 +5368,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5395,7 +5392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D6F2D2-A739-4F57-96AA-F52D172A4F49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8656E9-BC07-4B09-B5E7-A8EE25800160}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5412,7 +5409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5519,10 +5516,10 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>38</v>
@@ -5534,10 +5531,10 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>38</v>
@@ -5549,10 +5546,10 @@
         <v>531700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>38</v>
@@ -5576,7 +5573,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5591,7 +5588,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5606,7 +5603,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,7 +5624,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5642,7 +5639,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5657,7 +5654,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,10 +5722,10 @@
         <v>519297</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>38</v>
@@ -5740,10 +5737,10 @@
         <v>554566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>38</v>
@@ -5755,10 +5752,10 @@
         <v>1073864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>38</v>
@@ -5782,7 +5779,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5797,7 +5794,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5812,7 +5809,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,7 +5830,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5848,7 +5845,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5863,7 +5860,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,10 +5928,10 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>308</v>
+        <v>112</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>38</v>
@@ -5946,10 +5943,10 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -5961,10 +5958,10 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>38</v>
@@ -5988,7 +5985,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6003,7 +6000,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6018,7 +6015,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,7 +6036,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6054,7 +6051,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6069,7 +6066,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,7 +6122,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6137,10 +6134,10 @@
         <v>322240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>38</v>
@@ -6152,10 +6149,10 @@
         <v>428556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>38</v>
@@ -6167,10 +6164,10 @@
         <v>750796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>38</v>
@@ -6194,7 +6191,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6209,7 +6206,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6224,7 +6221,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,7 +6242,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6260,7 +6257,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6275,7 +6272,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,7 +6328,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6343,10 +6340,10 @@
         <v>196748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>38</v>
@@ -6358,10 +6355,10 @@
         <v>259513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>38</v>
@@ -6373,10 +6370,10 @@
         <v>456260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>38</v>
@@ -6400,7 +6397,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6415,7 +6412,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6430,7 +6427,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,7 +6448,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6466,7 +6463,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6481,7 +6478,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,7 +6534,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6549,10 +6546,10 @@
         <v>277223</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>118</v>
+        <v>311</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>38</v>
@@ -6564,10 +6561,10 @@
         <v>275622</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>128</v>
+        <v>312</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>38</v>
@@ -6579,10 +6576,10 @@
         <v>552845</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>38</v>
@@ -6606,7 +6603,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>108</v>
+        <v>314</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6621,7 +6618,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>121</v>
+        <v>315</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6636,7 +6633,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,7 +6654,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>108</v>
+        <v>314</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6672,7 +6669,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>121</v>
+        <v>315</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6687,7 +6684,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6743,7 +6740,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6755,10 +6752,10 @@
         <v>627754</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>38</v>
@@ -6770,10 +6767,10 @@
         <v>804203</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>38</v>
@@ -6785,10 +6782,10 @@
         <v>1431957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>38</v>
@@ -6812,7 +6809,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6842,7 +6839,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,7 +6860,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6893,7 +6890,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6949,7 +6946,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6961,10 +6958,10 @@
         <v>859428</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>38</v>
@@ -6976,10 +6973,10 @@
         <v>868434</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>38</v>
@@ -6991,10 +6988,10 @@
         <v>1727862</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>38</v>
@@ -7018,7 +7015,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -7033,22 +7030,22 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,7 +7066,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7084,22 +7081,22 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,10 +7164,10 @@
         <v>3385228</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>38</v>
@@ -7182,10 +7179,10 @@
         <v>3835581</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>38</v>
@@ -7194,13 +7191,13 @@
         <v>8743</v>
       </c>
       <c r="N36" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>38</v>
@@ -7224,7 +7221,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7239,22 +7236,22 @@
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7275,7 +7272,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7290,22 +7287,22 @@
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7347,7 +7344,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
@@ -7361,7 +7358,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1431-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05C38EC1-6F2E-45CE-B12A-2A28889A5FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{274E34E6-6DC6-4F81-92CB-8C810C8B15EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B7E2B226-881D-40F8-B2FC-D20791F3E7F2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{536460C6-6784-4BF9-B1E3-8AFF53C238D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="312">
   <si>
     <t>Población con diagnóstico de enfermedad de riñón en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -103,160 +103,169 @@
     <t>1,43%</t>
   </si>
   <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>97,77%</t>
   </si>
   <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>98,91%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -274,7 +283,7 @@
     <t>0,99%</t>
   </si>
   <si>
-    <t>3,53%</t>
+    <t>3,39%</t>
   </si>
   <si>
     <t>4,01%</t>
@@ -283,664 +292,604 @@
     <t>1,84%</t>
   </si>
   <si>
-    <t>7,69%</t>
+    <t>7,82%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>1,36%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad de riñón en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad de riñón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad de riñón en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad de riñón en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -1436,7 +1385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4DCDE4-E776-4A2D-B912-76124938E0E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6E0D73-5F09-40FE-8F67-4B3C0E358D79}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1954,37 +1903,37 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,13 +1948,13 @@
         <v>3028</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2014,7 +1963,7 @@
         <v>2113</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
@@ -2032,7 +1981,7 @@
         <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>47</v>
@@ -2065,13 +2014,13 @@
         <v>338907</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M14" s="7">
         <v>631</v>
@@ -2080,13 +2029,13 @@
         <v>659924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,7 +2091,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2160,7 +2109,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2175,7 +2124,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2190,7 +2139,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2154,13 @@
         <v>8629</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2220,13 +2169,13 @@
         <v>15100</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -2235,13 +2184,13 @@
         <v>23729</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2205,13 @@
         <v>660091</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H18" s="7">
         <v>612</v>
@@ -2271,13 +2220,13 @@
         <v>661096</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M18" s="7">
         <v>1230</v>
@@ -2286,13 +2235,13 @@
         <v>1321187</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,7 +2297,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2366,7 +2315,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2381,7 +2330,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2396,7 +2345,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2360,13 @@
         <v>2097</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2426,13 +2375,13 @@
         <v>8810</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -2441,13 +2390,13 @@
         <v>10906</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,13 +2411,13 @@
         <v>210521</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -2477,13 +2426,13 @@
         <v>210781</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M22" s="7">
         <v>398</v>
@@ -2492,13 +2441,13 @@
         <v>421303</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,7 +2503,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2572,7 +2521,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2587,7 +2536,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2602,7 +2551,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2566,13 @@
         <v>4087</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2632,13 +2581,13 @@
         <v>2842</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2647,13 +2596,13 @@
         <v>6929</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,13 +2617,13 @@
         <v>269894</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H26" s="7">
         <v>265</v>
@@ -2683,13 +2632,13 @@
         <v>275254</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M26" s="7">
         <v>522</v>
@@ -2698,13 +2647,13 @@
         <v>545148</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,7 +2709,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2778,7 +2727,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2793,7 +2742,7 @@
         <v>16</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2808,7 +2757,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2772,13 @@
         <v>7292</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2841,10 +2790,10 @@
         <v>24</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -2853,13 +2802,13 @@
         <v>11366</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,13 +2823,13 @@
         <v>655496</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H30" s="7">
         <v>632</v>
@@ -2892,10 +2841,10 @@
         <v>34</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>1244</v>
@@ -2904,13 +2853,13 @@
         <v>1345275</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,7 +2915,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2984,7 +2933,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2999,7 +2948,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3014,7 +2963,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +2978,13 @@
         <v>8605</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H33" s="7">
         <v>12</v>
@@ -3044,10 +2993,10 @@
         <v>12800</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>135</v>
@@ -3080,13 +3029,13 @@
         <v>770493</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>138</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="H34" s="7">
         <v>744</v>
@@ -3095,13 +3044,13 @@
         <v>809778</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M34" s="7">
         <v>1453</v>
@@ -3110,10 +3059,10 @@
         <v>1580271</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>37</v>
@@ -3190,37 +3139,37 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3184,13 @@
         <v>40966</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H37" s="7">
         <v>51</v>
@@ -3250,13 +3199,13 @@
         <v>53002</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M37" s="7">
         <v>89</v>
@@ -3265,13 +3214,13 @@
         <v>93968</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3235,13 @@
         <v>3385813</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="G38" s="7" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="H38" s="7">
         <v>3244</v>
@@ -3301,28 +3250,28 @@
         <v>3500988</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="M38" s="7">
         <v>6415</v>
       </c>
       <c r="N38" s="7">
-        <v>6886801</v>
+        <v>6886800</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,7 +3313,7 @@
         <v>6504</v>
       </c>
       <c r="N39" s="7">
-        <v>6980769</v>
+        <v>6980768</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
@@ -3378,7 +3327,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3402,7 +3351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5FFC7C-0120-4503-9A4E-B52D40B4345F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F594482-E932-458F-83D5-5DC0AE7C1D88}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3419,7 +3368,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3532,37 +3481,37 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,7 +3526,7 @@
         <v>4740</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>166</v>
@@ -3595,10 +3544,10 @@
         <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -3607,7 +3556,7 @@
         <v>10985</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>171</v>
@@ -3628,13 +3577,13 @@
         <v>289021</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H6" s="7">
         <v>271</v>
@@ -3643,13 +3592,13 @@
         <v>282458</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>532</v>
@@ -3658,7 +3607,7 @@
         <v>571479</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>179</v>
@@ -3786,10 +3735,10 @@
         <v>181</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -3798,13 +3747,13 @@
         <v>5315</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -3813,13 +3762,13 @@
         <v>11729</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3783,13 @@
         <v>496161</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
         <v>479</v>
@@ -3849,13 +3798,13 @@
         <v>517769</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>948</v>
@@ -3864,13 +3813,13 @@
         <v>1013930</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,7 +3893,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3959,7 +3908,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3974,7 +3923,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3938,13 @@
         <v>2698</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4004,13 +3953,13 @@
         <v>2303</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4019,13 +3968,13 @@
         <v>5001</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +3989,13 @@
         <v>315867</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>330</v>
@@ -4055,13 +4004,13 @@
         <v>334006</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M14" s="7">
         <v>662</v>
@@ -4070,13 +4019,13 @@
         <v>649873</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,7 +4081,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4150,7 +4099,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4165,7 +4114,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4180,7 +4129,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4144,13 @@
         <v>7030</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4210,13 +4159,13 @@
         <v>6848</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -4225,13 +4174,13 @@
         <v>13878</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4195,13 @@
         <v>362934</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="H18" s="7">
         <v>352</v>
@@ -4261,13 +4210,13 @@
         <v>380435</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="M18" s="7">
         <v>699</v>
@@ -4276,13 +4225,13 @@
         <v>743369</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,7 +4287,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4356,7 +4305,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4371,7 +4320,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4386,7 +4335,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4350,13 @@
         <v>5556</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -4416,13 +4365,13 @@
         <v>4466</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -4431,13 +4380,13 @@
         <v>10022</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>231</v>
+        <v>103</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4401,13 @@
         <v>205665</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H22" s="7">
         <v>219</v>
@@ -4467,13 +4416,13 @@
         <v>214121</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>426</v>
@@ -4482,13 +4431,13 @@
         <v>419786</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>240</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,7 +4493,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4562,7 +4511,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4577,7 +4526,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4592,7 +4541,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4556,13 @@
         <v>3607</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -4622,13 +4571,13 @@
         <v>10542</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -4637,13 +4586,13 @@
         <v>14149</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4607,13 @@
         <v>259516</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>252</v>
+        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>253</v>
@@ -4673,13 +4622,13 @@
         <v>262573</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="M26" s="7">
         <v>508</v>
@@ -4688,13 +4637,13 @@
         <v>522089</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>257</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,7 +4699,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4768,7 +4717,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4783,7 +4732,7 @@
         <v>16</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4798,7 +4747,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4762,13 @@
         <v>5001</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -4828,13 +4777,13 @@
         <v>8201</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>263</v>
+        <v>28</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -4843,13 +4792,13 @@
         <v>13202</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>265</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4813,13 @@
         <v>651557</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>267</v>
+        <v>50</v>
       </c>
       <c r="H30" s="7">
         <v>639</v>
@@ -4879,13 +4828,13 @@
         <v>683093</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="M30" s="7">
         <v>1214</v>
@@ -4894,13 +4843,13 @@
         <v>1334650</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>271</v>
+        <v>55</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,7 +4905,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4974,7 +4923,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4989,7 +4938,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5004,7 +4953,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,10 +4971,10 @@
         <v>136</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -5034,13 +4983,13 @@
         <v>12905</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>274</v>
+        <v>120</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="M33" s="7">
         <v>21</v>
@@ -5049,13 +4998,13 @@
         <v>23331</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5019,13 @@
         <v>768157</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="H34" s="7">
         <v>744</v>
@@ -5085,13 +5034,13 @@
         <v>813262</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>280</v>
+        <v>127</v>
       </c>
       <c r="M34" s="7">
         <v>1484</v>
@@ -5100,13 +5049,13 @@
         <v>1581419</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,37 +5129,37 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,10 +5177,10 @@
         <v>136</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H37" s="7">
         <v>51</v>
@@ -5240,13 +5189,13 @@
         <v>56826</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="M37" s="7">
         <v>96</v>
@@ -5255,13 +5204,13 @@
         <v>102298</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,13 +5225,13 @@
         <v>3348878</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="H38" s="7">
         <v>3287</v>
@@ -5291,13 +5240,13 @@
         <v>3487716</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>292</v>
+        <v>138</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="M38" s="7">
         <v>6473</v>
@@ -5306,13 +5255,13 @@
         <v>6836594</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>293</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,7 +5317,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5392,7 +5341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8656E9-BC07-4B09-B5E7-A8EE25800160}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECFB98C-B115-4833-BCF6-E91595E78463}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5409,7 +5358,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5516,10 +5465,10 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>38</v>
@@ -5531,10 +5480,10 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>38</v>
@@ -5546,10 +5495,10 @@
         <v>531700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>38</v>
@@ -5573,7 +5522,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5588,7 +5537,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5603,7 +5552,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,7 +5573,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5639,7 +5588,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5654,7 +5603,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,10 +5671,10 @@
         <v>519297</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>38</v>
@@ -5737,10 +5686,10 @@
         <v>554566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>38</v>
@@ -5752,10 +5701,10 @@
         <v>1073864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>38</v>
@@ -5779,7 +5728,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5794,7 +5743,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5809,7 +5758,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,7 +5779,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5845,7 +5794,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5860,7 +5809,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,10 +5877,10 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>38</v>
@@ -5943,10 +5892,10 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -5958,10 +5907,10 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>38</v>
@@ -5985,7 +5934,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6000,7 +5949,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6015,7 +5964,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,7 +5985,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6051,7 +6000,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6066,7 +6015,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,7 +6071,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6134,10 +6083,10 @@
         <v>322240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>38</v>
@@ -6149,10 +6098,10 @@
         <v>428556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>38</v>
@@ -6164,10 +6113,10 @@
         <v>750796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>38</v>
@@ -6191,7 +6140,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6206,7 +6155,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6221,7 +6170,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6242,7 +6191,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6257,7 +6206,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6272,7 +6221,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,7 +6277,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6340,10 +6289,10 @@
         <v>196748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>38</v>
@@ -6355,10 +6304,10 @@
         <v>259513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>38</v>
@@ -6370,10 +6319,10 @@
         <v>456260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>38</v>
@@ -6397,7 +6346,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6412,7 +6361,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6427,7 +6376,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,7 +6397,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6463,7 +6412,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6478,7 +6427,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,7 +6483,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6546,10 +6495,10 @@
         <v>277223</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>38</v>
@@ -6561,10 +6510,10 @@
         <v>275622</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>38</v>
@@ -6576,10 +6525,10 @@
         <v>552845</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>38</v>
@@ -6603,7 +6552,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6618,7 +6567,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6633,7 +6582,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,7 +6603,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6669,7 +6618,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6684,7 +6633,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,7 +6689,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6752,10 +6701,10 @@
         <v>627754</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>38</v>
@@ -6767,10 +6716,10 @@
         <v>804203</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>38</v>
@@ -6782,10 +6731,10 @@
         <v>1431957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>38</v>
@@ -6809,7 +6758,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6839,7 +6788,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6860,7 +6809,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6890,7 +6839,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,7 +6895,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6958,10 +6907,10 @@
         <v>859428</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>38</v>
@@ -6973,10 +6922,10 @@
         <v>868434</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>38</v>
@@ -6988,10 +6937,10 @@
         <v>1727862</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>38</v>
@@ -7015,7 +6964,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -7030,7 +6979,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -7045,7 +6994,7 @@
         <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,7 +7015,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7081,7 +7030,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -7096,7 +7045,7 @@
         <v>16</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,10 +7113,10 @@
         <v>3385228</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>38</v>
@@ -7179,10 +7128,10 @@
         <v>3835581</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>38</v>
@@ -7194,10 +7143,10 @@
         <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>38</v>
@@ -7221,7 +7170,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7236,7 +7185,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7251,7 +7200,7 @@
         <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,7 +7221,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7287,7 +7236,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7302,7 +7251,7 @@
         <v>16</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,7 +7307,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1431-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1431-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5EE101C-E9B4-4C50-AB5B-9C04A1432D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B882D9-3625-452D-B0E3-FAADA56C8943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D7C7B4FA-3E40-4BF4-A67B-7EA619FD3B3D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B973578E-C438-4E15-8CB8-1EFBCC88FEF4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="292">
   <si>
     <t>Población con diagnóstico de enfermedad de riñón en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -72,12 +72,66 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -90,9 +144,6 @@
     <t>2,87%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
     <t>0,59%</t>
   </si>
   <si>
@@ -117,9 +168,6 @@
     <t>99,39%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
     <t>97,4%</t>
   </si>
   <si>
@@ -135,9 +183,6 @@
     <t>99,21%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -198,52 +243,52 @@
     <t>Granada</t>
   </si>
   <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -405,9 +450,6 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
     <t>0,9%</t>
   </si>
   <si>
@@ -424,9 +466,6 @@
   </si>
   <si>
     <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
   </si>
   <si>
     <t>97,29%</t>
@@ -1285,7 +1324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3FC6DD-F423-4CC4-A3B8-9D8E5A60BB15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89FBC5D-F456-4B32-BEE0-E2BC265191EE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1403,88 +1442,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4091</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5003</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="N4" s="7">
+        <v>9095</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D5" s="7">
+        <v>290647</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="I5" s="7">
+        <v>282242</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>529</v>
+      </c>
+      <c r="N5" s="7">
+        <v>572888</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1493,48 +1544,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1546,13 +1603,13 @@
         <v>7229</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -1561,13 +1618,13 @@
         <v>7263</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -1576,19 +1633,19 @@
         <v>14492</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>465</v>
@@ -1597,13 +1654,13 @@
         <v>498298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>472</v>
@@ -1612,13 +1669,13 @@
         <v>515393</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>937</v>
@@ -1627,13 +1684,13 @@
         <v>1013692</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1648,13 +1705,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>479</v>
@@ -1663,13 +1720,13 @@
         <v>522656</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>951</v>
@@ -1678,18 +1735,18 @@
         <v>1028184</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1701,13 +1758,13 @@
         <v>3028</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1716,13 +1773,13 @@
         <v>2113</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1731,19 +1788,19 @@
         <v>5142</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>316</v>
@@ -1752,13 +1809,13 @@
         <v>321018</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>315</v>
@@ -1767,13 +1824,13 @@
         <v>338907</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>631</v>
@@ -1782,13 +1839,13 @@
         <v>659924</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,13 +1860,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -1818,13 +1875,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -1833,117 +1890,117 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>8629</v>
+        <v>4538</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>15100</v>
+        <v>10096</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>23729</v>
+        <v>14634</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>618</v>
+        <v>340</v>
       </c>
       <c r="D14" s="7">
-        <v>660091</v>
+        <v>369444</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>612</v>
+        <v>361</v>
       </c>
       <c r="I14" s="7">
-        <v>661096</v>
+        <v>378855</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
-        <v>1230</v>
+        <v>701</v>
       </c>
       <c r="N14" s="7">
-        <v>1321187</v>
+        <v>748299</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,54 +2009,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2011,13 +2068,13 @@
         <v>2097</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2026,13 +2083,13 @@
         <v>8810</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2041,19 +2098,19 @@
         <v>10906</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>194</v>
@@ -2062,13 +2119,13 @@
         <v>210521</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -2077,13 +2134,13 @@
         <v>210781</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>398</v>
@@ -2092,13 +2149,13 @@
         <v>421303</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2170,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -2128,13 +2185,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -2143,18 +2200,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2166,13 +2223,13 @@
         <v>4087</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2181,13 +2238,13 @@
         <v>2842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2196,19 +2253,19 @@
         <v>6929</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>257</v>
@@ -2217,13 +2274,13 @@
         <v>269894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -2232,13 +2289,13 @@
         <v>275254</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>522</v>
@@ -2247,13 +2304,13 @@
         <v>545148</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,13 +2325,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2283,13 +2340,13 @@
         <v>278096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2298,18 +2355,18 @@
         <v>552077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2321,13 +2378,13 @@
         <v>7292</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2336,13 +2393,13 @@
         <v>4074</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -2351,19 +2408,19 @@
         <v>11366</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>612</v>
@@ -2372,13 +2429,13 @@
         <v>655496</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>632</v>
@@ -2387,13 +2444,13 @@
         <v>689779</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>1244</v>
@@ -2402,13 +2459,13 @@
         <v>1345275</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,13 +2480,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -2438,13 +2495,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -2453,18 +2510,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2476,13 +2533,13 @@
         <v>8605</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -2491,13 +2548,13 @@
         <v>12800</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -2506,19 +2563,19 @@
         <v>21405</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>709</v>
@@ -2527,13 +2584,13 @@
         <v>770493</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7">
         <v>744</v>
@@ -2542,13 +2599,13 @@
         <v>809778</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
         <v>1453</v>
@@ -2557,13 +2614,13 @@
         <v>1580271</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,13 +2635,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>756</v>
@@ -2593,13 +2650,13 @@
         <v>822578</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1473</v>
@@ -2608,13 +2665,13 @@
         <v>1601676</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,13 +2688,13 @@
         <v>40966</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>51</v>
@@ -2646,13 +2703,13 @@
         <v>53002</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M28" s="7">
         <v>89</v>
@@ -2661,19 +2718,19 @@
         <v>93968</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3171</v>
@@ -2682,13 +2739,13 @@
         <v>3385813</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H29" s="7">
         <v>3244</v>
@@ -2697,28 +2754,28 @@
         <v>3500988</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>6415</v>
       </c>
       <c r="N29" s="7">
-        <v>6886800</v>
+        <v>6886801</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2790,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3295</v>
@@ -2748,33 +2805,33 @@
         <v>3553990</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6504</v>
       </c>
       <c r="N30" s="7">
-        <v>6980768</v>
+        <v>6980769</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2798,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345F94A4-9831-49D4-A18E-9BDEFC68F83C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AACDE31-1422-4502-9FEF-DDD290C351D1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2815,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2922,13 +2979,13 @@
         <v>4740</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -2937,13 +2994,13 @@
         <v>6245</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -2952,19 +3009,19 @@
         <v>10985</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>261</v>
@@ -2973,13 +3030,13 @@
         <v>289021</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>271</v>
@@ -2988,13 +3045,13 @@
         <v>282458</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>532</v>
@@ -3003,13 +3060,13 @@
         <v>571479</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3081,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -3039,13 +3096,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -3054,18 +3111,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3077,13 +3134,13 @@
         <v>6414</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3092,13 +3149,13 @@
         <v>5315</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3107,19 +3164,19 @@
         <v>11729</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>469</v>
@@ -3128,13 +3185,13 @@
         <v>496161</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H8" s="7">
         <v>479</v>
@@ -3143,13 +3200,13 @@
         <v>517769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>948</v>
@@ -3158,13 +3215,13 @@
         <v>1013930</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3236,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -3194,13 +3251,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -3209,18 +3266,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3232,13 +3289,13 @@
         <v>2698</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3247,13 +3304,13 @@
         <v>2303</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3262,19 +3319,19 @@
         <v>5001</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>332</v>
@@ -3283,13 +3340,13 @@
         <v>315867</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
         <v>330</v>
@@ -3298,13 +3355,13 @@
         <v>334006</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>662</v>
@@ -3313,13 +3370,13 @@
         <v>649873</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3391,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -3349,13 +3406,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -3364,18 +3421,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3387,13 +3444,13 @@
         <v>7030</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3402,13 +3459,13 @@
         <v>6848</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3417,19 +3474,19 @@
         <v>13878</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>347</v>
@@ -3438,13 +3495,13 @@
         <v>362934</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>352</v>
@@ -3453,13 +3510,13 @@
         <v>380435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>699</v>
@@ -3468,13 +3525,13 @@
         <v>743369</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3546,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -3504,13 +3561,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -3519,18 +3576,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3542,13 +3599,13 @@
         <v>5556</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3557,13 +3614,13 @@
         <v>4466</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3572,19 +3629,19 @@
         <v>10022</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>207</v>
@@ -3593,13 +3650,13 @@
         <v>205665</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>219</v>
@@ -3608,13 +3665,13 @@
         <v>214121</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="M17" s="7">
         <v>426</v>
@@ -3623,13 +3680,13 @@
         <v>419786</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3701,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -3659,13 +3716,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -3674,18 +3731,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3697,13 +3754,13 @@
         <v>3607</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3712,13 +3769,13 @@
         <v>10542</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -3727,19 +3784,19 @@
         <v>14149</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>255</v>
@@ -3748,13 +3805,13 @@
         <v>259516</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H20" s="7">
         <v>253</v>
@@ -3763,13 +3820,13 @@
         <v>262573</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="M20" s="7">
         <v>508</v>
@@ -3778,13 +3835,13 @@
         <v>522089</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3856,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -3814,13 +3871,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -3829,18 +3886,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3852,13 +3909,13 @@
         <v>5001</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -3867,13 +3924,13 @@
         <v>8201</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -3882,19 +3939,19 @@
         <v>13202</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>575</v>
@@ -3903,13 +3960,13 @@
         <v>651557</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="H23" s="7">
         <v>639</v>
@@ -3918,13 +3975,13 @@
         <v>683093</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="M23" s="7">
         <v>1214</v>
@@ -3933,13 +3990,13 @@
         <v>1334650</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +4011,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -3969,13 +4026,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -3984,18 +4041,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4007,13 +4064,13 @@
         <v>10426</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -4022,13 +4079,13 @@
         <v>12905</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -4037,19 +4094,19 @@
         <v>23331</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>740</v>
@@ -4058,13 +4115,13 @@
         <v>768157</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="H26" s="7">
         <v>744</v>
@@ -4073,13 +4130,13 @@
         <v>813262</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="M26" s="7">
         <v>1484</v>
@@ -4088,13 +4145,13 @@
         <v>1581419</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4166,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -4124,13 +4181,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -4139,13 +4196,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4219,13 @@
         <v>45472</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="H28" s="7">
         <v>51</v>
@@ -4177,13 +4234,13 @@
         <v>56826</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="M28" s="7">
         <v>96</v>
@@ -4192,19 +4249,19 @@
         <v>102298</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3186</v>
@@ -4213,13 +4270,13 @@
         <v>3348878</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H29" s="7">
         <v>3287</v>
@@ -4228,13 +4285,13 @@
         <v>3487716</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="M29" s="7">
         <v>6473</v>
@@ -4243,13 +4300,13 @@
         <v>6836594</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4321,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -4279,13 +4336,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -4294,18 +4351,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
